--- a/biology/Zoologie/Anactinia_pelagica/Anactinia_pelagica.xlsx
+++ b/biology/Zoologie/Anactinia_pelagica/Anactinia_pelagica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anactinia pelagica est une espèce de cérianthe (embranchement des cnidaires) de la famille des Arachnactidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anactinia pelagica est une espèce de cérianthe (embranchement des cnidaires) de la famille des Arachnactidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Anactinia pelagica a été décrite en 1909 par le zoologiste écossais Nelson Annandale (1876-1924)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Anactinia pelagica a été décrite en 1909 par le zoologiste écossais Nelson Annandale (1876-1924),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anactinia pelagica est une espèce marine dont la localité type se situe dans le golfe du Bengale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anactinia pelagica est une espèce marine dont la localité type se situe dans le golfe du Bengale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1909, l'auteur indique que le plus grand spécimen en sa possession mesurait 12 mm de long et présentait un diamètre de 4 mm au niveau du péristome[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1909, l'auteur indique que le plus grand spécimen en sa possession mesurait 12 mm de long et présentait un diamètre de 4 mm au niveau du péristome.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) N. Annandale, « A Pelagic Sea-Anemone without Tentacles », Records of the Indian Museum, Calcutta, vol. 3, no 2,‎ 1909, p. 157-162 (ISSN 0375-099X, OCLC 1427183, DOI 10.26515/RZSI/V3/I2/1909/163269, lire en ligne)</t>
         </is>
